--- a/数据整理/stocks/其他/IMAB-天境生物.xlsx
+++ b/数据整理/stocks/其他/IMAB-天境生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1802</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1802</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/IMAB-天境生物.xlsx
+++ b/数据整理/stocks/其他/IMAB-天境生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/IMAB-天境生物.xlsx
+++ b/数据整理/stocks/其他/IMAB-天境生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.95</v>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.39</v>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1243,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/IMAB-天境生物.xlsx
+++ b/数据整理/stocks/其他/IMAB-天境生物.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1685</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -599,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.97</t>
+          <t>35.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9673</t>
+          <t>1.0777</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -637,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.97</t>
+          <t>35.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9673</t>
+          <t>1.0777</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -675,149 +681,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008284</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9200</t>
+          <t>0.2790</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008285</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9200</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001984</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>63.75</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3638</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2563</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1116,7 +1008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1029,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1167,36 +1059,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.22</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>83.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0777</t>
+          <t>0.9673</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1205,36 +1097,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.22</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>83.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0777</t>
+          <t>0.9673</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1243,35 +1135,149 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>457001</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2790</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1286,96 +1292,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>